--- a/output.xlsx
+++ b/output.xlsx
@@ -95,11 +95,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -122,9 +123,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -308,6 +315,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -367,11 +376,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48644373"/>
-        <c:axId val="75921124"/>
+        <c:axId val="63430562"/>
+        <c:axId val="58150280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48644373"/>
+        <c:axId val="63430562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,14 +408,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75921124"/>
+        <c:crossAx val="58150280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75921124"/>
+        <c:axId val="58150280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,7 +430,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -443,7 +452,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48644373"/>
+        <c:crossAx val="63430562"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -547,6 +556,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -606,11 +617,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="45299996"/>
-        <c:axId val="52260638"/>
+        <c:axId val="4624693"/>
+        <c:axId val="58109697"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45299996"/>
+        <c:axId val="4624693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,14 +649,253 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52260638"/>
+        <c:crossAx val="58109697"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52260638"/>
+        <c:axId val="58109697"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4624693"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>One-Step StDev of Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$A$203,output!$C$203,output!$E$203,output!$G$203,output!$I$203,output!$K$203,output!$M$203,output!$O$203,output!$Q$203,output!$S$203,output!$U$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69.2522409944174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0576259302538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.39452597255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.8061752816317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0614793664913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.2331429092142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.4281711972977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.1470945903667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.3050755874075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.5115600793391</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.6426850595419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="40213065"/>
+        <c:axId val="80662487"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="40213065"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80662487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80662487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +932,246 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45299996"/>
+        <c:crossAx val="40213065"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Five-Step StDev</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$B$203,output!$D$203,output!$F$203,output!$H$203,output!$J$203,output!$L$203,output!$N$203,output!$P$203,output!$R$203,output!$T$203,output!$V$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>362.540131896463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207.070437661963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294.777775631962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.6241428005218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.7650320944458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.9201513111319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.5658467068251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.7351077676092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.507973000724</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.4384316689455</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.2497630961091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="35334085"/>
+        <c:axId val="91116120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="35334085"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91116120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91116120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35334085"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -741,9 +1230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1300320</xdr:colOff>
+      <xdr:colOff>1299960</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -752,7 +1241,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="33026400"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -771,9 +1260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1129680</xdr:colOff>
+      <xdr:colOff>1129320</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -782,11 +1271,71 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5781960" y="33031800"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>16560</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1316880</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16560" y="36258480"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1285560</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1092600</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5744880" y="36243000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -802,8 +1351,8 @@
   </sheetPr>
   <dimension ref="A1:W203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A183" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J214" activeCellId="0" sqref="J214"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,79 +1373,79 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="22.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
